--- a/your-code/PivotTable vs Formula Exercise.xlsx
+++ b/your-code/PivotTable vs Formula Exercise.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c646aa9d978bc39d/Documents/Module 4/Week 1/Day 2 - Excel Pivot Tables and Macros/Lab/lab_2_Pivot-tables_vs_formulas/your-code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\Ironhack_lab\week_20\lab-excel-pivot-tables-vs-formulas\your-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A3A7DBBF-F3AC-4897-BE43-8F94BEB89478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7683A57F-D9F9-4F18-9995-6F2FB9CE459C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099D8AF-CD62-4AC0-BBEA-04DDF1120605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="3" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="TransactionData" sheetId="4" r:id="rId3"/>
+    <sheet name="SalesSummary" sheetId="5" r:id="rId4"/>
+    <sheet name="FormulaAnalysis" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$E$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TransactionData!$A$1:$F$39</definedName>
     <definedName name="ARTÍCULOS" localSheetId="1">data!$A$1:$E$38</definedName>
+    <definedName name="ARTÍCULOS" localSheetId="2">TransactionData!$A$1:$F$38</definedName>
     <definedName name="ARTÍCULOS">#REF!</definedName>
+    <definedName name="data" localSheetId="2">TransactionData!$A$1:$F$39</definedName>
     <definedName name="data">data!$A$1:$E$39</definedName>
+    <definedName name="miLista" localSheetId="2">TransactionData!$A$1:$F$4500</definedName>
     <definedName name="miLista">data!$A$1:$E$4500</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="103" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +42,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -41,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="79">
   <si>
     <t>China</t>
   </si>
@@ -230,14 +239,63 @@
   </si>
   <si>
     <t>Lamp Base</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Sum of Price</t>
+  </si>
+  <si>
+    <t>Total Sum of Price</t>
+  </si>
+  <si>
+    <t>Total Count of Price2</t>
+  </si>
+  <si>
+    <t>Count of Price2</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Total Count</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Item Count</t>
+  </si>
+  <si>
+    <t>Price Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00[$€]_-;\-* #,##0.00[$€]_-;_-* &quot;-&quot;??[$€]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -261,7 +319,7 @@
       <name val="MS Sans Serif"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +332,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -298,12 +362,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,12 +417,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -397,6 +521,675 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Amin" refreshedDate="45819.721177893516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="38" xr:uid="{847DFB8C-87DD-4D18-BF7F-A55ADB9EC09D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="data" sheet="TransactionData"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Section" numFmtId="0">
+      <sharedItems count="5">
+        <s v="CERAMICS"/>
+        <s v="CLOTHING"/>
+        <s v="SPORTS"/>
+        <s v="HARDWARE"/>
+        <s v="TOYS"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="37">
+        <s v="Pipes"/>
+        <s v="Decorative Plate"/>
+        <s v="Tea Set"/>
+        <s v="Ashtray"/>
+        <s v="Flower Pot"/>
+        <s v="China Pitcher"/>
+        <s v="Men's Card"/>
+        <s v="Women's Pants"/>
+        <s v="Men's Shirt"/>
+        <s v="Women's Blouse"/>
+        <s v="Leather Jacket"/>
+        <s v="Men's Coat"/>
+        <s v="Women's Coat"/>
+        <s v="Leather Belt"/>
+        <s v="Tennis Racket"/>
+        <s v="Tracksuit"/>
+        <s v="Electric Train"/>
+        <s v="Olympic Pistol"/>
+        <s v="Skateboard"/>
+        <s v="Basketball"/>
+        <s v="Soccer Ball"/>
+        <s v="Sweatshirt"/>
+        <s v="Mountain Bike"/>
+        <s v="Screwdriver"/>
+        <s v="Handsaw"/>
+        <s v="Wrench"/>
+        <s v="Pliers"/>
+        <s v="Hammer"/>
+        <s v="Large File"/>
+        <s v="Drill Bit Set"/>
+        <s v="Remote Control Car"/>
+        <s v="Walker"/>
+        <s v="Video Game Console"/>
+        <s v="Walking Doll"/>
+        <s v="Soldier Fort"/>
+        <s v="Sound Gun"/>
+        <s v="Lamp Base"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-05-12T00:00:00" maxDate="2019-01-30T00:00:00" count="37">
+        <d v="2019-01-27T00:00:00"/>
+        <d v="2018-12-24T00:00:00"/>
+        <d v="2019-01-15T00:00:00"/>
+        <d v="2018-05-12T00:00:00"/>
+        <d v="2019-01-05T00:00:00"/>
+        <d v="2018-11-23T00:00:00"/>
+        <d v="2018-10-23T00:00:00"/>
+        <d v="2018-09-10T00:00:00"/>
+        <d v="2019-01-07T00:00:00"/>
+        <d v="2018-12-20T00:00:00"/>
+        <d v="2018-09-09T00:00:00"/>
+        <d v="2019-01-14T00:00:00"/>
+        <d v="2019-01-29T00:00:00"/>
+        <d v="2019-01-03T00:00:00"/>
+        <d v="2018-09-14T00:00:00"/>
+        <d v="2018-08-16T00:00:00"/>
+        <d v="2018-07-03T00:00:00"/>
+        <d v="2019-01-04T00:00:00"/>
+        <d v="2019-01-21T00:00:00"/>
+        <d v="2019-01-16T00:00:00"/>
+        <d v="2018-12-08T00:00:00"/>
+        <d v="2018-12-12T00:00:00"/>
+        <d v="2018-11-07T00:00:00"/>
+        <d v="2018-10-05T00:00:00"/>
+        <d v="2018-10-28T00:00:00"/>
+        <d v="2019-01-26T00:00:00"/>
+        <d v="2018-10-17T00:00:00"/>
+        <d v="2019-01-18T00:00:00"/>
+        <d v="2018-11-19T00:00:00"/>
+        <d v="2018-11-06T00:00:00"/>
+        <d v="2018-12-07T00:00:00"/>
+        <d v="2018-12-14T00:00:00"/>
+        <d v="2019-01-19T00:00:00"/>
+        <d v="2018-10-14T00:00:00"/>
+        <d v="2018-10-09T00:00:00"/>
+        <d v="2018-08-05T00:00:00"/>
+        <d v="2018-06-06T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="7"/>
+    </cacheField>
+    <cacheField name="Country" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Price" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.6060726263026939" maxValue="1254.4805452381811"/>
+    </cacheField>
+    <cacheField name="Months (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="months" startDate="2018-05-12T00:00:00" endDate="2019-01-30T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;12/05/2018"/>
+          <s v="Jan"/>
+          <s v="Feb"/>
+          <s v="Mar"/>
+          <s v="Apr"/>
+          <s v="May"/>
+          <s v="Jun"/>
+          <s v="Jul"/>
+          <s v="Aug"/>
+          <s v="Sept"/>
+          <s v="Oct"/>
+          <s v="Nov"/>
+          <s v="Dec"/>
+          <s v="&gt;30/01/2019"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Quarters (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="quarters" startDate="2018-05-12T00:00:00" endDate="2019-01-30T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;12/05/2018"/>
+          <s v="Qtr1"/>
+          <s v="Qtr2"/>
+          <s v="Qtr3"/>
+          <s v="Qtr4"/>
+          <s v="&gt;30/01/2019"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Years (Date)" numFmtId="0" databaseField="0">
+      <fieldGroup base="2">
+        <rangePr groupBy="years" startDate="2018-05-12T00:00:00" endDate="2019-01-30T00:00:00"/>
+        <groupItems count="4">
+          <s v="&lt;12/05/2018"/>
+          <s v="2018"/>
+          <s v="2019"/>
+          <s v="&gt;30/01/2019"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="38">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="China"/>
+    <n v="140.35435673674468"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="China"/>
+    <n v="45.07590782878367"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="China"/>
+    <n v="36.06"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Japan"/>
+    <n v="16.45571141802796"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="Spain"/>
+    <n v="24.202757443534914"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <s v="China"/>
+    <n v="106.47530441263088"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <s v="Italy"/>
+    <n v="237.14735614775282"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="7"/>
+    <s v="Morocco"/>
+    <n v="145.19250417703412"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <s v="Spain"/>
+    <n v="55.94220667604246"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="9"/>
+    <s v="China"/>
+    <n v="84.213816066255575"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="10"/>
+    <s v="Italy"/>
+    <n v="435.5775125311024"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="11"/>
+    <s v="Italy"/>
+    <n v="203.268303823639"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="12"/>
+    <s v="Morocco"/>
+    <n v="300.06130323464714"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="13"/>
+    <s v="Spain"/>
+    <n v="3.6060726263026939"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="14"/>
+    <s v="USA"/>
+    <n v="77.891168728138183"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="15"/>
+    <s v="USA"/>
+    <n v="193.39367494861347"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="16"/>
+    <s v="Japan"/>
+    <n v="1254.4805452381811"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="17"/>
+    <s v="Sweden"/>
+    <n v="38.945584364069092"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="18"/>
+    <s v="Morocco"/>
+    <n v="93.036673758609496"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="19"/>
+    <s v="Japan"/>
+    <n v="62.727633334535362"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="20"/>
+    <s v="Spain"/>
+    <n v="36.595627035928501"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="21"/>
+    <s v="USA"/>
+    <n v="365.98031084346042"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <x v="22"/>
+    <s v="USA"/>
+    <n v="470.41818422223025"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="23"/>
+    <x v="23"/>
+    <s v="Spain"/>
+    <n v="5.5233012392869592"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="24"/>
+    <x v="24"/>
+    <s v="France"/>
+    <n v="25.170386931592802"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="25"/>
+    <x v="2"/>
+    <s v="USA"/>
+    <n v="20.332239491303355"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="26"/>
+    <x v="25"/>
+    <s v="Italy"/>
+    <n v="5.613453054944527"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="27"/>
+    <x v="26"/>
+    <s v="Spain"/>
+    <n v="9.4959912492637599"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="23"/>
+    <x v="27"/>
+    <s v="France"/>
+    <n v="7.5487120310603055"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="28"/>
+    <x v="28"/>
+    <s v="Spain"/>
+    <n v="18.390970394143739"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="29"/>
+    <x v="29"/>
+    <s v="Taiwan"/>
+    <n v="12.579183344752563"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="30"/>
+    <x v="30"/>
+    <s v="Morocco"/>
+    <n v="132.87175603716659"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <x v="31"/>
+    <s v="Japan"/>
+    <n v="86.113014316108334"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="32"/>
+    <x v="32"/>
+    <s v="USA"/>
+    <n v="368.78703737093264"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="33"/>
+    <x v="33"/>
+    <s v="Spain"/>
+    <n v="87.549433245585561"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="34"/>
+    <x v="34"/>
+    <s v="Japan"/>
+    <n v="119.75166179846862"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="35"/>
+    <x v="35"/>
+    <s v="Spain"/>
+    <n v="47.708340845984637"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="36"/>
+    <x v="36"/>
+    <s v="Turkey"/>
+    <n v="33.133797314677921"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B7DEDBD-BD40-42CF-838B-673DBFBFDFB7}" name="PivotTable9" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="38">
+        <item x="3"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="29"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="36"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="38">
+        <item x="3"/>
+        <item x="36"/>
+        <item x="16"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="23"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="24"/>
+        <item x="29"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="31"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="18"/>
+        <item x="25"/>
+        <item x="0"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="7"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Price" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Count of Price2" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea field="7" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68408F57-2609-4CF7-9328-02FE8121296B}">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -737,7 +1530,9 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1432,4 +2227,1386 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589BD1E2-BADE-44A6-ABB6-532A66ADDDF4}">
+  <sheetPr>
+    <outlinePr applyStyles="1"/>
+  </sheetPr>
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="35" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="43" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="61" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43492</v>
+      </c>
+      <c r="D2" s="16">
+        <f>YEAR(C2)</f>
+        <v>2019</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>140.35435673674468</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43458</v>
+      </c>
+      <c r="D3" s="16">
+        <f>YEAR(C3)</f>
+        <v>2018</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45.07590782878367</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43480</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D39" si="0">YEAR(C4)</f>
+        <v>2019</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>36.06</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43232</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6">
+        <v>16.45571141802796</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43470</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6">
+        <v>24.202757443534914</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>106.47530441263088</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43396</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6">
+        <v>237.14735614775282</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43353</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6">
+        <v>145.19250417703412</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4">
+        <v>43472</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6">
+        <v>55.94220667604246</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43454</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>84.213816066255575</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43352</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6">
+        <v>435.5775125311024</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43479</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6">
+        <v>203.268303823639</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43494</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="6">
+        <v>300.06130323464714</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43468</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.6060726263026939</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43357</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6">
+        <v>77.891168728138183</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43328</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6">
+        <v>193.39367494861347</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43284</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1254.4805452381811</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43469</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6">
+        <v>38.945584364069092</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43486</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6">
+        <v>93.036673758609496</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43481</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6">
+        <v>62.727633334535362</v>
+      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43442</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6">
+        <v>36.595627035928501</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43446</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6">
+        <v>365.98031084346042</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43411</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="6">
+        <v>470.41818422223025</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43378</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5.5233012392869592</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43401</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="6">
+        <v>25.170386931592802</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43480</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6">
+        <v>20.332239491303355</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43491</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5.613453054944527</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43390</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="6">
+        <v>9.4959912492637599</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43483</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="6">
+        <v>7.5487120310603055</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43423</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="6">
+        <v>18.390970394143739</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43410</v>
+      </c>
+      <c r="D32" s="16">
+        <f>YEAR(C32)</f>
+        <v>2018</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="6">
+        <v>12.579183344752563</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43441</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="6">
+        <v>132.87175603716659</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43448</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="6">
+        <v>86.113014316108334</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43484</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="6">
+        <v>368.78703737093264</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43387</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="6">
+        <v>87.549433245585561</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43382</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="6">
+        <v>119.75166179846862</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43317</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="6">
+        <v>47.708340845984637</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="5">
+        <v>43257</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="8">
+        <v>33.133797314677921</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7697BF-A26E-48EA-9A8E-EE09E323224E}">
+  <dimension ref="A3:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="38" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15">
+        <v>168.00692365944252</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>200.6171141802796</v>
+      </c>
+      <c r="E6" s="14">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>368.62403783972212</v>
+      </c>
+      <c r="G6" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="15">
+        <v>902.13118892214493</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>562.87788636063124</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1465.0090752827762</v>
+      </c>
+      <c r="G7" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15">
+        <v>71.15983315903982</v>
+      </c>
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+      <c r="D8" s="15">
+        <v>33.494404577308188</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15">
+        <v>104.65423773634801</v>
+      </c>
+      <c r="G8" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2398.7595110165521</v>
+      </c>
+      <c r="C9" s="14">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15">
+        <v>194.70989145721396</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3</v>
+      </c>
+      <c r="F9" s="15">
+        <v>2593.469402473766</v>
+      </c>
+      <c r="G9" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15">
+        <v>507.12800355799163</v>
+      </c>
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15">
+        <v>368.78703737093264</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>875.91504092892433</v>
+      </c>
+      <c r="G10" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="15">
+        <v>4047.185460315171</v>
+      </c>
+      <c r="C11" s="14">
+        <v>24</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1360.4863339463657</v>
+      </c>
+      <c r="E11" s="14">
+        <v>14</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5407.6717942615369</v>
+      </c>
+      <c r="G11" s="14">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6713464E-B8CA-4D99-B974-F70EE8748C4C}">
+  <dimension ref="A2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="27">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="27">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="27">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="27">
+        <v>2019</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="22">
+        <f>COUNTIFS(TransactionData!A:A, A4, TransactionData!D:D, 2018)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="22">
+        <f>COUNTIFS(TransactionData!A:A, A4, TransactionData!D:D, 2019)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="23">
+        <f>SUMIFS(TransactionData!F:F, TransactionData!A:A, A4, TransactionData!D:D, 2018)</f>
+        <v>168.00692365944252</v>
+      </c>
+      <c r="E4" s="23">
+        <f>SUMIFS(TransactionData!F:F, TransactionData!A:A, A4, TransactionData!D:D, 2019)</f>
+        <v>200.6171141802796</v>
+      </c>
+      <c r="F4" s="20">
+        <f>B4+C4</f>
+        <v>6</v>
+      </c>
+      <c r="G4" s="23">
+        <f>D4+E4</f>
+        <v>368.62403783972212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="22">
+        <f>COUNTIFS(TransactionData!A:A, A5, TransactionData!D:D, 2018)</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="22">
+        <f>COUNTIFS(TransactionData!A:A, A5, TransactionData!D:D, 2019)</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="23">
+        <f>SUMIFS(TransactionData!F:F, TransactionData!A:A, A5, TransactionData!D:D, 2018)</f>
+        <v>902.13118892214493</v>
+      </c>
+      <c r="E5" s="23">
+        <f>SUMIFS(TransactionData!F:F, TransactionData!A:A, A5, TransactionData!D:D, 2019)</f>
+        <v>562.87788636063124</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" ref="F5:F8" si="0">B5+C5</f>
+        <v>8</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" ref="G5:G8" si="1">D5+E5</f>
+        <v>1465.0090752827762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="22">
+        <f>COUNTIFS(TransactionData!A:A, A6, TransactionData!D:D, 2018)</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="22">
+        <f>COUNTIFS(TransactionData!A:A, A6, TransactionData!D:D, 2019)</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="23">
+        <f>SUMIFS(TransactionData!F:F, TransactionData!A:A, A6, TransactionData!D:D, 2018)</f>
+        <v>71.15983315903982</v>
+      </c>
+      <c r="E6" s="23">
+        <f>SUMIFS(TransactionData!F:F, TransactionData!A:A, A6, TransactionData!D:D, 2019)</f>
+        <v>33.494404577308188</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" si="1"/>
+        <v>104.65423773634801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="22">
+        <f>COUNTIFS(TransactionData!A:A, A7, TransactionData!D:D, 2018)</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="22">
+        <f>COUNTIFS(TransactionData!A:A, A7, TransactionData!D:D, 2019)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="23">
+        <f>SUMIFS(TransactionData!F:F, TransactionData!A:A, A7, TransactionData!D:D, 2018)</f>
+        <v>2398.7595110165521</v>
+      </c>
+      <c r="E7" s="23">
+        <f>SUMIFS(TransactionData!F:F, TransactionData!A:A, A7, TransactionData!D:D, 2019)</f>
+        <v>194.70989145721396</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G7" s="23">
+        <f t="shared" si="1"/>
+        <v>2593.469402473766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="22">
+        <f>COUNTIFS(TransactionData!A:A, A8, TransactionData!D:D, 2018)</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="22">
+        <f>COUNTIFS(TransactionData!A:A, A8, TransactionData!D:D, 2019)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
+        <f>SUMIFS(TransactionData!F:F, TransactionData!A:A, A8, TransactionData!D:D, 2018)</f>
+        <v>507.12800355799163</v>
+      </c>
+      <c r="E8" s="23">
+        <f>SUMIFS(TransactionData!F:F, TransactionData!A:A, A8, TransactionData!D:D, 2019)</f>
+        <v>368.78703737093264</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="1"/>
+        <v>875.91504092892433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="27">
+        <f>SUM(B4:B8)</f>
+        <v>24</v>
+      </c>
+      <c r="C9" s="27">
+        <f t="shared" ref="C9:G9" si="2">SUM(C4:C8)</f>
+        <v>14</v>
+      </c>
+      <c r="D9" s="28">
+        <f t="shared" si="2"/>
+        <v>4047.185460315171</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="2"/>
+        <v>1360.4863339463657</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" si="2"/>
+        <v>5407.6717942615369</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>